--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023UnityFile\ARPG_2023\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4C4628-E049-4F55-851D-375E73E5E74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB46279-B095-4048-A40B-99718BAE13FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阵营1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阵营2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,6 +268,14 @@
   </si>
   <si>
     <t>GameObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,23 +673,23 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="5" max="5" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.46484375" customWidth="1"/>
+    <col min="8" max="8" width="6.53125" customWidth="1"/>
+    <col min="9" max="9" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -770,7 +770,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G5" t="s">
         <v>37</v>
       </c>
@@ -807,7 +807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>39</v>
       </c>
@@ -821,7 +821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G7" t="s">
         <v>38</v>
       </c>
@@ -835,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G9" t="s">
         <v>26</v>
       </c>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G10" t="s">
         <v>27</v>
       </c>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G11" t="s">
         <v>28</v>
       </c>
@@ -876,7 +876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G12" t="s">
         <v>29</v>
       </c>
@@ -887,7 +887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>52</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G16" t="s">
         <v>42</v>
       </c>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G17" t="s">
         <v>45</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>53</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>54</v>
       </c>
@@ -971,40 +971,40 @@
         <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
         <v>55</v>
-      </c>
-      <c r="H21" t="s">
-        <v>56</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" t="s">
-        <v>59</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I24">
         <v>0</v>

--- a/Luban/Config/Datas/__enums__.xlsx
+++ b/Luban/Config/Datas/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB46279-B095-4048-A40B-99718BAE13FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25685387-BF26-4FB6-B387-1E249FEC0413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,14 @@
   </si>
   <si>
     <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Civilian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -904,118 +912,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="b">
+      <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>48</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G18" t="s">
         <v>45</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="b">
+      <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>49</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>50</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="b">
+      <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>58</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G23" t="s">
         <v>62</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>57</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="b">
+      <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="b">
+      <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>60</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>0</v>
       </c>
     </row>
